--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Jupyter Projects\cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{D2B27C28-9DC8-4807-B587-D9275F529B8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01A07B-108E-415C-B4DE-5D050271BE57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$A$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$C$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="150">
   <si>
     <t>summary</t>
   </si>
@@ -471,12 +471,21 @@
   </si>
   <si>
     <t>include</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,32 +564,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -657,6 +640,32 @@
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -671,29 +680,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C1:E67" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="C1:E67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="D1:F67" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="D1:F67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="summary" dataDxfId="3"/>
-    <tableColumn id="2" name="count" dataDxfId="2"/>
-    <tableColumn id="3" name="top_n_values" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="summary" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="count" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="top_n_values" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:D67" totalsRowShown="0">
-  <autoFilter ref="A1:D67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:D67" totalsRowShown="0">
+  <autoFilter ref="A1:D67" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="wybrane"/>
-    <tableColumn id="2" name="summary"/>
-    <tableColumn id="3" name="count"/>
-    <tableColumn id="4" name="top_n_values"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="wybrane"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="summary"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="count"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="top_n_values"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -995,1050 +1004,1078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="139.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:6" ht="36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>3000507</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>3000133</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>3000126</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>3000126</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>140</v>
       </c>
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>2996558</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>2986589</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>2985724</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>140</v>
       </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>2975734</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>140</v>
       </c>
-      <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>2973804</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>140</v>
       </c>
-      <c r="B11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>2972421</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>139</v>
       </c>
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>2969827</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="B13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>2967403</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>2964886</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>2963782</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>2959047</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>2954554</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>2946381</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>140</v>
       </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>2939284</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>141</v>
       </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>2935768</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>142</v>
       </c>
-      <c r="B21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>2931478</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>2929166</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>142</v>
       </c>
-      <c r="B23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>2928909</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>140</v>
       </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>2926986</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>143</v>
       </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>2925745</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="408" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="2:6" ht="408" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>2922226</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>140</v>
       </c>
-      <c r="B27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>2921440</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>140</v>
       </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>2918550</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>140</v>
       </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>2912147</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+    <row r="30" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>2904555</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>140</v>
       </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>2884802</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>139</v>
       </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>2882808</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    <row r="33" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>2880702</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
         <v>139</v>
       </c>
-      <c r="B34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>2875822</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
         <v>139</v>
       </c>
-      <c r="B35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>2865406</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>142</v>
       </c>
-      <c r="B36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>2865069</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
         <v>139</v>
       </c>
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>2860890</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="3">
         <v>2858074</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>140</v>
       </c>
-      <c r="B39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>2853203</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>140</v>
       </c>
-      <c r="B40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E40" s="3">
         <v>2848662</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>2840909</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>2830498</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
         <v>139</v>
       </c>
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>2828164</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>139</v>
       </c>
-      <c r="B44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>2809402</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" ht="36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>140</v>
       </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>2791968</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C46" s="2" t="s">
+    <row r="46" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>2756344</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>2683377</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>145</v>
       </c>
-      <c r="B48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <v>2672949</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>2647701</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>139</v>
       </c>
-      <c r="B50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>2508829</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>140</v>
       </c>
-      <c r="B51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>2489933</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>141</v>
       </c>
-      <c r="B52" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="3">
         <v>2208054</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
+    <row r="53" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>2203620</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>141</v>
       </c>
-      <c r="B54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="3">
         <v>2197867</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>141</v>
       </c>
-      <c r="B55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <v>2187983</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
+    <row r="56" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="3">
+      <c r="E56" s="3">
         <v>2184408</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
+    <row r="57" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <v>2175575</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>142</v>
       </c>
-      <c r="B58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="3">
+      <c r="E58" s="3">
         <v>2140445</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>141</v>
       </c>
-      <c r="B59" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>1245827</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>141</v>
       </c>
-      <c r="B60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
         <v>1180852</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
+    <row r="61" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>1167412</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
+    <row r="62" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>1158444</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
+    <row r="63" spans="2:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>429196</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="2" t="s">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="3">
+      <c r="E64" s="3">
         <v>429191</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="132" x14ac:dyDescent="0.25">
-      <c r="C65" s="1" t="s">
+    <row r="65" spans="4:6" ht="132" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <v>63622</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="3:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="C66" s="2" t="s">
+    <row r="66" spans="4:6" ht="36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="3">
+      <c r="E66" s="3">
         <v>19679</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="3:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="C67" s="1" t="s">
+    <row r="67" spans="4:6" ht="84" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>86</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A67"/>
+  <autoFilter ref="A1:C67" xr:uid="{C44C3C4C-EFD9-4DD4-83A3-C6EEDD1CF08E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="conti"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -2048,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2955,7 +2992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Jupyter Projects\cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01A07B-108E-415C-B4DE-5D050271BE57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6B0E16-AF2A-4E03-9E4E-3D218DF75FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,8 +510,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +538,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -540,10 +559,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -557,8 +577,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Akcent 1" xfId="1" builtinId="29"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -1009,12 +1036,12 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="139.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1339,7 +1366,7 @@
       <c r="C21" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="4">
@@ -1366,14 +1393,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>142</v>
       </c>
       <c r="C23" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="4">
@@ -1578,14 +1605,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="3">
@@ -1595,7 +1622,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -1605,7 +1632,7 @@
       <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="4">
@@ -1622,7 +1649,7 @@
       <c r="C38" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E38" s="3">
@@ -1632,14 +1659,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>140</v>
       </c>
       <c r="C39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="4">
@@ -1649,14 +1676,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>140</v>
       </c>
       <c r="C40" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E40" s="3">
@@ -1666,7 +1693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -1676,7 +1703,7 @@
       <c r="C41" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E41" s="4">
@@ -1696,7 +1723,7 @@
       <c r="C42" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="3">
@@ -1716,7 +1743,7 @@
       <c r="C43" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E43" s="4">
@@ -1733,7 +1760,7 @@
       <c r="C44" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E44" s="3">
@@ -1750,7 +1777,7 @@
       <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E45" s="4">
@@ -1760,8 +1787,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="2" t="s">
+    <row r="46" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="3">
@@ -1771,14 +1798,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>142</v>
       </c>
       <c r="C47" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E47" s="4">
@@ -1795,7 +1822,7 @@
       <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E48" s="3">
@@ -1812,7 +1839,7 @@
       <c r="C49" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="4">
@@ -1947,13 +1974,13 @@
       <c r="C58" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="5">
         <v>2140445</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="5" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2074,6 +2101,11 @@
       <filters>
         <filter val="conti"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Jupyter Projects\cars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Jupyter Projects\cars\cars_spark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6B0E16-AF2A-4E03-9E4E-3D218DF75FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C27F2C-E8A0-40EB-84E0-462A629F939B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,9 +1094,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>135</v>
@@ -1308,9 +1308,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
         <v>135</v>
@@ -1359,9 +1359,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
         <v>135</v>
@@ -1376,9 +1376,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
         <v>135</v>
@@ -1798,9 +1798,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
         <v>135</v>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Jupyter Projects\cars\cars_spark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C27F2C-E8A0-40EB-84E0-462A629F939B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E85EA-94A3-44B7-B0EE-847C7C61FAB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$D$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="154">
   <si>
     <t>summary</t>
   </si>
@@ -480,6 +480,18 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>LS_factorize</t>
+  </si>
+  <si>
+    <t>factorize</t>
+  </si>
+  <si>
+    <t>format</t>
   </si>
 </sst>
 </file>
@@ -519,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +561,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -563,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -581,6 +599,13 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,8 +732,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="D1:F67" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="D1:F67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="F1:H67" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="F1:H67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="summary" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="count" dataDxfId="1"/>
@@ -1032,21 +1057,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="139.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -1056,516 +1081,564 @@
       <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="36" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>3000507</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>3000133</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>3000126</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>3000126</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G6" s="3">
         <v>2996558</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="4">
         <v>2986589</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2985724</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <v>2975734</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2973804</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <v>2972421</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2969827</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4">
+      <c r="G13" s="4">
         <v>2967403</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2964886</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4">
+      <c r="G15" s="4">
         <v>2963782</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="3">
+      <c r="G16" s="3">
         <v>2959047</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="17" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G17" s="4">
         <v>2954554</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>142</v>
       </c>
       <c r="C18" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2946381</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>140</v>
       </c>
       <c r="C19" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>2939284</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2935768</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>139</v>
       </c>
       <c r="C21" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G21" s="4">
         <v>2931478</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>142</v>
       </c>
       <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2929166</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>142</v>
       </c>
       <c r="C23" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="4">
+      <c r="G23" s="4">
         <v>2928909</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>140</v>
       </c>
       <c r="C24" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2926986</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="4">
+      <c r="G25" s="4">
         <v>2925745</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="408" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="408" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2922226</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>140</v>
       </c>
       <c r="C27" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="4">
+      <c r="G27" s="4">
         <v>2921440</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>140</v>
       </c>
       <c r="C28" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="3">
+      <c r="G28" s="3">
         <v>2918550</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>140</v>
       </c>
       <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="4">
+      <c r="G29" s="4">
         <v>2912147</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="2" t="s">
+    <row r="30" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="3">
+      <c r="G30" s="3">
         <v>2904555</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>140</v>
       </c>
       <c r="C31" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="4">
+      <c r="G31" s="4">
         <v>2884802</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>139</v>
       </c>
       <c r="C32" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2882808</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="4">
+      <c r="G33" s="4">
         <v>2880702</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -1575,17 +1648,17 @@
       <c r="C34" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="3">
+      <c r="G34" s="3">
         <v>2875822</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -1595,34 +1668,34 @@
       <c r="C35" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="4">
+      <c r="G35" s="4">
         <v>2865406</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="3">
+      <c r="G36" s="3">
         <v>2865069</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -1632,68 +1705,74 @@
       <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="4">
+      <c r="G37" s="4">
         <v>2860890</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>139</v>
       </c>
       <c r="C38" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="3">
+      <c r="G38" s="3">
         <v>2858074</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>140</v>
       </c>
       <c r="C39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="4">
+      <c r="G39" s="4">
         <v>2853203</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>140</v>
       </c>
       <c r="C40" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="3">
+      <c r="G40" s="3">
         <v>2848662</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -1703,17 +1782,17 @@
       <c r="C41" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="4">
+      <c r="G41" s="4">
         <v>2840909</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -1723,17 +1802,17 @@
       <c r="C42" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2830498</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -1743,371 +1822,364 @@
       <c r="C43" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="4">
+      <c r="G43" s="4">
         <v>2828164</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>139</v>
       </c>
       <c r="C44" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2809402</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>140</v>
       </c>
       <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="7"/>
+      <c r="F45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="4">
+      <c r="G45" s="9">
         <v>2791968</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="H45" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="6" t="s">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2756344</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>139</v>
       </c>
       <c r="C47" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="4">
+      <c r="G47" s="4">
         <v>2683377</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>145</v>
       </c>
       <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2672949</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>145</v>
       </c>
       <c r="C49" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="4">
+      <c r="G49" s="4">
         <v>2647701</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>139</v>
       </c>
       <c r="C50" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="3">
+      <c r="G50" s="3">
         <v>2508829</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>140</v>
       </c>
       <c r="C51" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="4">
+      <c r="G51" s="4">
         <v>2489933</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>141</v>
       </c>
       <c r="C52" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2208054</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="1" t="s">
+    <row r="53" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="4">
+      <c r="G53" s="4">
         <v>2203620</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>141</v>
       </c>
       <c r="C54" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2197867</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>141</v>
       </c>
       <c r="C55" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="4">
+      <c r="G55" s="4">
         <v>2187983</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="2" t="s">
+    <row r="56" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="3">
+      <c r="G56" s="3">
         <v>2184408</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
+    <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="4">
+      <c r="G57" s="4">
         <v>2175575</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>142</v>
       </c>
       <c r="C58" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="5">
+      <c r="G58" s="5">
         <v>2140445</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>141</v>
       </c>
       <c r="C59" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="4">
+      <c r="G59" s="4">
         <v>1245827</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>141</v>
       </c>
       <c r="C60" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1180852</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
+    <row r="61" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="4">
+      <c r="G61" s="4">
         <v>1167412</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="2" t="s">
+    <row r="62" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1158444</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="1" t="s">
+    <row r="63" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="4">
+      <c r="G63" s="4">
         <v>429196</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="2" t="s">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="3">
+      <c r="G64" s="3">
         <v>429191</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="4:6" ht="132" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="1" t="s">
+    <row r="65" spans="6:8" ht="132" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="4">
+      <c r="G65" s="4">
         <v>63622</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="4:6" ht="36" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="2" t="s">
+    <row r="66" spans="6:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="F66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19679</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="4:6" ht="84" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="1" t="s">
+    <row r="67" spans="6:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E67" s="4">
+      <c r="G67" s="4">
         <v>86</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C67" xr:uid="{C44C3C4C-EFD9-4DD4-83A3-C6EEDD1CF08E}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="conti"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:E1" xr:uid="{F5A5275B-924B-4017-9195-0DDFD3916287}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Jupyter Projects\cars\cars_spark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E85EA-94A3-44B7-B0EE-847C7C61FAB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BD4517-823C-4D22-A6D4-5B10C2536B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$D$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$E$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1057,10 +1057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>142</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>141</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>139</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>142</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>141</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>139</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>142</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>142</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>143</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="408" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="408" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>144</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F30" s="2" t="s">
         <v>59</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
         <v>65</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>139</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>139</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="F46" s="6" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>139</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>145</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>145</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>139</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>141</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F53" s="1" t="s">
         <v>105</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>141</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>141</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F56" s="2" t="s">
         <v>111</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F57" s="1" t="s">
         <v>113</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>142</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>141</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>141</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="s">
         <v>121</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="F62" s="2" t="s">
         <v>123</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="F63" s="1" t="s">
         <v>125</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F64" s="2" t="s">
         <v>127</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="6:8" ht="132" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:8" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="F65" s="1" t="s">
         <v>129</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="6:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:8" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="F66" s="2" t="s">
         <v>131</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="6:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:8" ht="84" hidden="1" x14ac:dyDescent="0.25">
       <c r="F67" s="1" t="s">
         <v>133</v>
       </c>
@@ -2179,7 +2180,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:E1" xr:uid="{F5A5275B-924B-4017-9195-0DDFD3916287}"/>
+  <autoFilter ref="A1:E67" xr:uid="{0677F6F9-0FA1-4BA1-89D0-2E94663AD834}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="cat"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
